--- a/data/MisInfoText/Analysis_output/news_and_blog/MisInfoText_news_and_blog_lexical_diversity.xlsx
+++ b/data/MisInfoText/Analysis_output/news_and_blog/MisInfoText_news_and_blog_lexical_diversity.xlsx
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.4023121387283237</v>
+        <v>0.3512195121951219</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.5579399141630901</v>
+        <v>0.5133079847908745</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.4894179894179894</v>
+        <v>0.4244444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1712,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.4764468371467026</v>
+        <v>0.431980906921241</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1720,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.4087136929460581</v>
+        <v>0.3670309653916211</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1728,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.4937759336099585</v>
+        <v>0.4499089253187614</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.4430714916151809</v>
+        <v>0.3818722139673105</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1744,7 +1744,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.4844961240310077</v>
+        <v>0.4292763157894737</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1752,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.46267087276551</v>
+        <v>0.4164358264081256</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1760,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.5252100840336135</v>
+        <v>0.456140350877193</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1768,7 +1768,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.3706377858002406</v>
+        <v>0.3336820083682008</v>
       </c>
     </row>
   </sheetData>
@@ -1810,7 +1810,7 @@
         <v>331</v>
       </c>
       <c r="B2">
-        <v>0.5178997613365155</v>
+        <v>0.4726890756302521</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>332</v>
       </c>
       <c r="B3">
-        <v>0.5634674922600619</v>
+        <v>0.5177111716621253</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>333</v>
       </c>
       <c r="B4">
-        <v>0.3136762860727729</v>
+        <v>0.2869222096956032</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>334</v>
       </c>
       <c r="B5">
-        <v>0.5467625899280576</v>
+        <v>0.4968553459119497</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>335</v>
       </c>
       <c r="B6">
-        <v>0.5016181229773463</v>
+        <v>0.4626647144948756</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>336</v>
       </c>
       <c r="B7">
-        <v>0.3503562945368171</v>
+        <v>0.3132036847492323</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>337</v>
       </c>
       <c r="B8">
-        <v>0.4225663716814159</v>
+        <v>0.3814634146341463</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>338</v>
       </c>
       <c r="B9">
-        <v>0.4525790349417637</v>
+        <v>0.4175182481751825</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>339</v>
       </c>
       <c r="B10">
-        <v>0.475</v>
+        <v>0.4386459802538787</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>340</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.426497277676951</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>341</v>
       </c>
       <c r="B12">
-        <v>0.5737051792828686</v>
+        <v>0.5241379310344828</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>342</v>
       </c>
       <c r="B13">
-        <v>0.5225806451612903</v>
+        <v>0.4970414201183432</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>343</v>
       </c>
       <c r="B14">
-        <v>0.3773584905660378</v>
+        <v>0.3629032258064516</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>344</v>
       </c>
       <c r="B15">
-        <v>0.5591397849462365</v>
+        <v>0.5244299674267101</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>345</v>
       </c>
       <c r="B16">
-        <v>0.6173913043478261</v>
+        <v>0.5586734693877551</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>346</v>
       </c>
       <c r="B17">
-        <v>0.4820846905537459</v>
+        <v>0.4417344173441735</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>347</v>
       </c>
       <c r="B18">
-        <v>0.4070175438596491</v>
+        <v>0.3772582359192349</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>348</v>
       </c>
       <c r="B19">
-        <v>0.7922077922077922</v>
+        <v>0.7701149425287356</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>349</v>
       </c>
       <c r="B20">
-        <v>0.5038610038610039</v>
+        <v>0.4686411149825784</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>350</v>
       </c>
       <c r="B21">
-        <v>0.6335403726708074</v>
+        <v>0.5910364145658263</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>351</v>
       </c>
       <c r="B22">
-        <v>0.6587677725118484</v>
+        <v>0.6217391304347826</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>352</v>
       </c>
       <c r="B23">
-        <v>0.6917293233082706</v>
+        <v>0.6242038216560509</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>353</v>
       </c>
       <c r="B24">
-        <v>0.5087281795511222</v>
+        <v>0.4494845360824742</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>354</v>
       </c>
       <c r="B25">
-        <v>0.3868686868686869</v>
+        <v>0.3517179023508137</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>355</v>
       </c>
       <c r="B26">
-        <v>0.5481727574750831</v>
+        <v>0.5119760479041916</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>356</v>
       </c>
       <c r="B27">
-        <v>0.6753246753246753</v>
+        <v>0.6568047337278107</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>357</v>
       </c>
       <c r="B28">
-        <v>0.5009596928982726</v>
+        <v>0.4415156507413509</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>358</v>
       </c>
       <c r="B29">
-        <v>0.4905660377358491</v>
+        <v>0.4568393094289508</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>359</v>
       </c>
       <c r="B30">
-        <v>0.664804469273743</v>
+        <v>0.640625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>360</v>
       </c>
       <c r="B31">
-        <v>0.4175152749490835</v>
+        <v>0.3630252100840336</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>361</v>
       </c>
       <c r="B32">
-        <v>0.4723809523809524</v>
+        <v>0.4320137693631669</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>362</v>
       </c>
       <c r="B33">
-        <v>0.3577712609970675</v>
+        <v>0.3186440677966101</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>363</v>
       </c>
       <c r="B34">
-        <v>0.537712895377129</v>
+        <v>0.4771784232365145</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>364</v>
       </c>
       <c r="B35">
-        <v>0.6346153846153846</v>
+        <v>0.5719063545150501</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>365</v>
       </c>
       <c r="B36">
-        <v>0.4197292069632495</v>
+        <v>0.3818965517241379</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>366</v>
       </c>
       <c r="B37">
-        <v>0.4150684931506849</v>
+        <v>0.3678025851938895</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>367</v>
       </c>
       <c r="B38">
-        <v>0.574468085106383</v>
+        <v>0.4985422740524781</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>368</v>
       </c>
       <c r="B39">
-        <v>0.518595041322314</v>
+        <v>0.4693140794223827</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>369</v>
       </c>
       <c r="B40">
-        <v>0.5276752767527675</v>
+        <v>0.4674922600619195</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>370</v>
       </c>
       <c r="B41">
-        <v>0.7183908045977011</v>
+        <v>0.6118721461187214</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>371</v>
       </c>
       <c r="B42">
-        <v>0.4681933842239186</v>
+        <v>0.4217391304347826</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>372</v>
       </c>
       <c r="B43">
-        <v>0.4449760765550239</v>
+        <v>0.4053763440860215</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>373</v>
       </c>
       <c r="B44">
-        <v>0.54421768707483</v>
+        <v>0.5077399380804953</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>374</v>
       </c>
       <c r="B45">
-        <v>0.5266272189349113</v>
+        <v>0.489247311827957</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>375</v>
       </c>
       <c r="B46">
-        <v>0.3866039952996475</v>
+        <v>0.3582718651211802</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>376</v>
       </c>
       <c r="B47">
-        <v>0.4295081967213115</v>
+        <v>0.3877840909090909</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>377</v>
       </c>
       <c r="B48">
-        <v>0.4824707846410685</v>
+        <v>0.4120879120879121</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>378</v>
       </c>
       <c r="B49">
-        <v>0.4469525959367946</v>
+        <v>0.3836363636363636</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>379</v>
       </c>
       <c r="B50">
-        <v>0.4842406876790831</v>
+        <v>0.4593175853018373</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>380</v>
       </c>
       <c r="B51">
-        <v>0.5224358974358975</v>
+        <v>0.467032967032967</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>381</v>
       </c>
       <c r="B52">
-        <v>0.4882995319812792</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>382</v>
       </c>
       <c r="B53">
-        <v>0.5377697841726619</v>
+        <v>0.4902912621359223</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>383</v>
       </c>
       <c r="B54">
-        <v>0.6573033707865169</v>
+        <v>0.6161616161616161</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>384</v>
       </c>
       <c r="B55">
-        <v>0.3679525222551929</v>
+        <v>0.3417493237150586</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>385</v>
       </c>
       <c r="B56">
-        <v>0.451063829787234</v>
+        <v>0.3987951807228916</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>386</v>
       </c>
       <c r="B57">
-        <v>0.5092592592592593</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>387</v>
       </c>
       <c r="B58">
-        <v>0.5017301038062284</v>
+        <v>0.4508670520231214</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>388</v>
       </c>
       <c r="B59">
-        <v>0.5991902834008097</v>
+        <v>0.5641025641025641</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>389</v>
       </c>
       <c r="B60">
-        <v>0.4404205607476636</v>
+        <v>0.3903903903903904</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>390</v>
       </c>
       <c r="B61">
-        <v>0.5093333333333333</v>
+        <v>0.4655581947743468</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>391</v>
       </c>
       <c r="B62">
-        <v>0.4930795847750865</v>
+        <v>0.464968152866242</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>392</v>
       </c>
       <c r="B63">
-        <v>0.5398550724637681</v>
+        <v>0.4695121951219512</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>393</v>
       </c>
       <c r="B64">
-        <v>0.6972477064220184</v>
+        <v>0.6422764227642277</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>394</v>
       </c>
       <c r="B65">
-        <v>0.6575342465753424</v>
+        <v>0.6141078838174274</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>395</v>
       </c>
       <c r="B66">
-        <v>0.6538461538461539</v>
+        <v>0.5916666666666667</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>396</v>
       </c>
       <c r="B67">
-        <v>0.5868544600938967</v>
+        <v>0.5508474576271186</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>397</v>
       </c>
       <c r="B68">
-        <v>0.5112262521588946</v>
+        <v>0.4616541353383459</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>398</v>
       </c>
       <c r="B69">
-        <v>0.5591054313099042</v>
+        <v>0.5242165242165242</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>399</v>
       </c>
       <c r="B70">
-        <v>0.712</v>
+        <v>0.6643356643356644</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>400</v>
       </c>
       <c r="B71">
-        <v>0.4808988764044944</v>
+        <v>0.4462151394422311</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>401</v>
       </c>
       <c r="B72">
-        <v>0.4685408299866131</v>
+        <v>0.4328899637243047</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>402</v>
       </c>
       <c r="B73">
-        <v>0.6766917293233082</v>
+        <v>0.6357615894039735</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>403</v>
       </c>
       <c r="B74">
-        <v>0.5324675324675324</v>
+        <v>0.4918414918414918</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>404</v>
       </c>
       <c r="B75">
-        <v>0.6</v>
+        <v>0.5547945205479452</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>405</v>
       </c>
       <c r="B76">
-        <v>0.4515366430260047</v>
+        <v>0.4163179916317992</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>406</v>
       </c>
       <c r="B77">
-        <v>0.6472602739726028</v>
+        <v>0.6043613707165109</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>407</v>
       </c>
       <c r="B78">
-        <v>0.4798657718120805</v>
+        <v>0.433048433048433</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>408</v>
       </c>
       <c r="B79">
-        <v>0.3950381679389313</v>
+        <v>0.3616298811544992</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>409</v>
       </c>
       <c r="B80">
-        <v>0.3596538669551109</v>
+        <v>0.3283292978208233</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>410</v>
       </c>
       <c r="B81">
-        <v>0.4984520123839009</v>
+        <v>0.4672131147540984</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>411</v>
       </c>
       <c r="B82">
-        <v>0.5136116152450091</v>
+        <v>0.4730831973898858</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>412</v>
       </c>
       <c r="B83">
-        <v>0.5600000000000001</v>
+        <v>0.5080645161290323</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>413</v>
       </c>
       <c r="B84">
-        <v>0.4836601307189543</v>
+        <v>0.4763313609467456</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>414</v>
       </c>
       <c r="B85">
-        <v>0.625</v>
+        <v>0.5543859649122806</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>415</v>
       </c>
       <c r="B86">
-        <v>0.4854700854700855</v>
+        <v>0.4501557632398754</v>
       </c>
     </row>
   </sheetData>
@@ -2622,25 +2622,25 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.4649720785688796</v>
+        <v>0.4141181322247607</v>
       </c>
       <c r="D2">
-        <v>0.05539577861035223</v>
+        <v>0.0521819271486032</v>
       </c>
       <c r="E2">
-        <v>0.3706377858002406</v>
+        <v>0.3336820083682008</v>
       </c>
       <c r="F2">
-        <v>0.4258925922806195</v>
+        <v>0.3744515896794658</v>
       </c>
       <c r="G2">
-        <v>0.4764468371467026</v>
+        <v>0.4244444444444445</v>
       </c>
       <c r="H2">
-        <v>0.491596961513974</v>
+        <v>0.4409449161200012</v>
       </c>
       <c r="I2">
-        <v>0.5579399141630901</v>
+        <v>0.5133079847908745</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2651,25 +2651,25 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>0.4822785884327207</v>
+        <v>0.4391663905643776</v>
       </c>
       <c r="D3">
-        <v>0.07777445316989016</v>
+        <v>0.07233673996480966</v>
       </c>
       <c r="E3">
-        <v>0.3333333333333333</v>
+        <v>0.2951200619674671</v>
       </c>
       <c r="F3">
-        <v>0.4304302483212819</v>
+        <v>0.3907113960146986</v>
       </c>
       <c r="G3">
-        <v>0.4725803696148087</v>
+        <v>0.4335922330097087</v>
       </c>
       <c r="H3">
-        <v>0.5366261456211813</v>
+        <v>0.4737946998722861</v>
       </c>
       <c r="I3">
-        <v>0.5930851063829787</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2680,25 +2680,25 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>0.4936297272842057</v>
+        <v>0.4496205507584851</v>
       </c>
       <c r="D4">
-        <v>0.09733290307566726</v>
+        <v>0.0858020596468571</v>
       </c>
       <c r="E4">
-        <v>0.3748079877112135</v>
+        <v>0.3452544704264099</v>
       </c>
       <c r="F4">
-        <v>0.4246580963074602</v>
+        <v>0.3877745304303952</v>
       </c>
       <c r="G4">
-        <v>0.4787581699346405</v>
+        <v>0.4351732991014121</v>
       </c>
       <c r="H4">
-        <v>0.5277977275163468</v>
+        <v>0.4781528715512211</v>
       </c>
       <c r="I4">
-        <v>0.84</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2709,25 +2709,25 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>0.4684213701867575</v>
+        <v>0.4316655795449358</v>
       </c>
       <c r="D5">
-        <v>0.07958181788490643</v>
+        <v>0.08173450336538521</v>
       </c>
       <c r="E5">
-        <v>0.2805983680870354</v>
+        <v>0.2432018383761011</v>
       </c>
       <c r="F5">
-        <v>0.4347822458903227</v>
+        <v>0.3987924725022323</v>
       </c>
       <c r="G5">
-        <v>0.4624472987547799</v>
+        <v>0.4157274875597994</v>
       </c>
       <c r="H5">
-        <v>0.5210642252357679</v>
+        <v>0.4843366093366094</v>
       </c>
       <c r="I5">
-        <v>0.6170212765957447</v>
+        <v>0.6017699115044248</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2738,25 +2738,25 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <v>0.4608142661602363</v>
+        <v>0.4177431768965846</v>
       </c>
       <c r="D6">
-        <v>0.1029175632611497</v>
+        <v>0.09582027019874044</v>
       </c>
       <c r="E6">
-        <v>0.2967542503863987</v>
+        <v>0.2681692732290709</v>
       </c>
       <c r="F6">
-        <v>0.3878122192618073</v>
+        <v>0.3471676843241325</v>
       </c>
       <c r="G6">
-        <v>0.4562475036612967</v>
+        <v>0.418265628819962</v>
       </c>
       <c r="H6">
-        <v>0.5069487515903308</v>
+        <v>0.4672378979525648</v>
       </c>
       <c r="I6">
-        <v>0.7279411764705882</v>
+        <v>0.6753246753246753</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2767,25 +2767,25 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>0.501388962480358</v>
+        <v>0.4584010266073282</v>
       </c>
       <c r="D7">
-        <v>0.1014972276680183</v>
+        <v>0.100004732064552</v>
       </c>
       <c r="E7">
-        <v>0.3492762743864066</v>
+        <v>0.2825443786982249</v>
       </c>
       <c r="F7">
-        <v>0.4509246088193457</v>
+        <v>0.4141025641025641</v>
       </c>
       <c r="G7">
-        <v>0.4811529933481153</v>
+        <v>0.4393063583815029</v>
       </c>
       <c r="H7">
-        <v>0.5238095238095238</v>
+        <v>0.48</v>
       </c>
       <c r="I7">
-        <v>0.76</v>
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2796,25 +2796,25 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.4659977279773213</v>
+        <v>0.4239425005351002</v>
       </c>
       <c r="D8">
-        <v>0.08652531779262539</v>
+        <v>0.08101709676570246</v>
       </c>
       <c r="E8">
-        <v>0.2503442577802258</v>
+        <v>0.220218319886094</v>
       </c>
       <c r="F8">
-        <v>0.4281270054387176</v>
+        <v>0.383687562856185</v>
       </c>
       <c r="G8">
-        <v>0.4824561403508772</v>
+        <v>0.4421875</v>
       </c>
       <c r="H8">
-        <v>0.5218556196278969</v>
+        <v>0.4761144113651539</v>
       </c>
       <c r="I8">
-        <v>0.5791245791245792</v>
+        <v>0.5397727272727273</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2825,25 +2825,25 @@
         <v>47</v>
       </c>
       <c r="C9">
-        <v>0.485625383583676</v>
+        <v>0.4390697247199625</v>
       </c>
       <c r="D9">
-        <v>0.09423333660420277</v>
+        <v>0.08800602947157546</v>
       </c>
       <c r="E9">
-        <v>0.2612359550561798</v>
+        <v>0.2385786802030457</v>
       </c>
       <c r="F9">
-        <v>0.4265250464565982</v>
+        <v>0.385987460815047</v>
       </c>
       <c r="G9">
-        <v>0.4967032967032967</v>
+        <v>0.4380403458213257</v>
       </c>
       <c r="H9">
-        <v>0.5432315285746498</v>
+        <v>0.4961137798888109</v>
       </c>
       <c r="I9">
-        <v>0.6870229007633588</v>
+        <v>0.6575342465753424</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2854,25 +2854,25 @@
         <v>140</v>
       </c>
       <c r="C10">
-        <v>0.5431112265433904</v>
+        <v>0.497163422256954</v>
       </c>
       <c r="D10">
-        <v>0.09648354671925922</v>
+        <v>0.09470659441718095</v>
       </c>
       <c r="E10">
-        <v>0.3468858131487889</v>
+        <v>0.3114134542705971</v>
       </c>
       <c r="F10">
-        <v>0.4754572009144019</v>
+        <v>0.432684157805517</v>
       </c>
       <c r="G10">
-        <v>0.5404793115239941</v>
+        <v>0.4943181818181818</v>
       </c>
       <c r="H10">
-        <v>0.5912619147743202</v>
+        <v>0.5440259971509971</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2883,25 +2883,25 @@
         <v>85</v>
       </c>
       <c r="C11">
-        <v>0.5211776774086427</v>
+        <v>0.4774337443161269</v>
       </c>
       <c r="D11">
-        <v>0.09681063460940051</v>
+        <v>0.09349725745545946</v>
       </c>
       <c r="E11">
-        <v>0.3136762860727729</v>
+        <v>0.2869222096956032</v>
       </c>
       <c r="F11">
-        <v>0.4681933842239186</v>
+        <v>0.4175182481751825</v>
       </c>
       <c r="G11">
-        <v>0.5092592592592593</v>
+        <v>0.467032967032967</v>
       </c>
       <c r="H11">
-        <v>0.5737051792828686</v>
+        <v>0.5242165242165242</v>
       </c>
       <c r="I11">
-        <v>0.7922077922077922</v>
+        <v>0.7701149425287356</v>
       </c>
     </row>
   </sheetData>
@@ -2930,7 +2930,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.4226110363391655</v>
+        <v>0.3819691577698695</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.4701986754966888</v>
+        <v>0.4271844660194175</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.4749620637329287</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.5721925133689839</v>
+        <v>0.5321100917431193</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.5930851063829787</v>
+        <v>0.5437352245862884</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2970,7 +2970,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.4018499486125385</v>
+        <v>0.372310570626754</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2978,7 +2978,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0.5855513307984791</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.3951406649616369</v>
+        <v>0.3713620488940629</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>0.465587044534413</v>
+        <v>0.4189349112426036</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3002,7 +3002,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>0.4538878842676311</v>
+        <v>0.4169381107491857</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>0.52125</v>
+        <v>0.4572649572649573</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3018,7 +3018,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0.5204991087344029</v>
+        <v>0.4675925925925926</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>0.5417515274949084</v>
+        <v>0.4758620689655172</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>0.3333333333333333</v>
+        <v>0.2951200619674671</v>
       </c>
     </row>
   </sheetData>
@@ -3079,7 +3079,7 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>0.3748079877112135</v>
+        <v>0.3452544704264099</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>0.6257309941520468</v>
+        <v>0.5643564356435643</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>0.4136043784206411</v>
+        <v>0.3742116327960757</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.5967741935483871</v>
+        <v>0.5497630331753555</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>31</v>
       </c>
       <c r="B6">
-        <v>0.4168674698795181</v>
+        <v>0.3744725738396624</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>0.4127358490566038</v>
+        <v>0.3830472103004292</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.4969325153374233</v>
+        <v>0.4692737430167598</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>0.4292084726867336</v>
+        <v>0.3892215568862276</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>0.4357723577235773</v>
+        <v>0.3965267727930535</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>0.3861607142857143</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>37</v>
       </c>
       <c r="B12">
-        <v>0.50390625</v>
+        <v>0.4683098591549296</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>0.5376044568245125</v>
+        <v>0.5012594458438288</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>0.4201077199281867</v>
+        <v>0.3863275039745628</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>40</v>
       </c>
       <c r="B15">
-        <v>0.4775641025641026</v>
+        <v>0.4391304347826087</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>41</v>
       </c>
       <c r="B16">
-        <v>0.3843478260869565</v>
+        <v>0.3511214230471771</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>42</v>
       </c>
       <c r="B17">
-        <v>0.4811046511627907</v>
+        <v>0.4351732991014121</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>43</v>
       </c>
       <c r="B18">
-        <v>0.4806094182825485</v>
+        <v>0.4334140435835351</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>44</v>
       </c>
       <c r="B19">
-        <v>0.84</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>45</v>
       </c>
       <c r="B20">
-        <v>0.5342105263157895</v>
+        <v>0.4813953488372093</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>46</v>
       </c>
       <c r="B21">
-        <v>0.5749063670411985</v>
+        <v>0.4992101105845181</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>47</v>
       </c>
       <c r="B22">
-        <v>0.4686998394863564</v>
+        <v>0.4112792297111417</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>48</v>
       </c>
       <c r="B23">
-        <v>0.4787581699346405</v>
+        <v>0.4421364985163205</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>49</v>
       </c>
       <c r="B24">
-        <v>0.4726100966702471</v>
+        <v>0.4299424184261036</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>50</v>
       </c>
       <c r="B25">
-        <v>0.5213849287169042</v>
+        <v>0.474910394265233</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>51</v>
       </c>
       <c r="B26">
-        <v>0.6108597285067874</v>
+        <v>0.5373134328358209</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>52</v>
       </c>
       <c r="B27">
-        <v>0.4479166666666667</v>
+        <v>0.4192307692307692</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>53</v>
       </c>
       <c r="B28">
-        <v>0.5048169556840078</v>
+        <v>0.461139896373057</v>
       </c>
     </row>
   </sheetData>
@@ -3345,7 +3345,7 @@
         <v>54</v>
       </c>
       <c r="B2">
-        <v>0.4609929078014184</v>
+        <v>0.4276527331189711</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3353,7 +3353,7 @@
         <v>55</v>
       </c>
       <c r="B3">
-        <v>0.44125</v>
+        <v>0.389428263214671</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3361,7 +3361,7 @@
         <v>56</v>
       </c>
       <c r="B4">
-        <v>0.43184421534937</v>
+        <v>0.4044117647058824</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3369,7 +3369,7 @@
         <v>57</v>
       </c>
       <c r="B5">
-        <v>0.5381750465549349</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3377,7 +3377,7 @@
         <v>58</v>
       </c>
       <c r="B6">
-        <v>0.5871313672922251</v>
+        <v>0.539568345323741</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3385,7 +3385,7 @@
         <v>59</v>
       </c>
       <c r="B7">
-        <v>0.6170212765957447</v>
+        <v>0.6017699115044248</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3393,7 +3393,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.4483471074380165</v>
+        <v>0.4081632653061225</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3401,7 +3401,7 @@
         <v>61</v>
       </c>
       <c r="B9">
-        <v>0.5226130653266332</v>
+        <v>0.502283105022831</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3409,7 +3409,7 @@
         <v>62</v>
       </c>
       <c r="B10">
-        <v>0.2805983680870354</v>
+        <v>0.2432018383761011</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3417,7 +3417,7 @@
         <v>63</v>
       </c>
       <c r="B11">
-        <v>0.4265486725663717</v>
+        <v>0.3882352941176471</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3425,7 +3425,7 @@
         <v>64</v>
       </c>
       <c r="B12">
-        <v>0.4639016897081413</v>
+        <v>0.4219178082191781</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3433,7 +3433,7 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <v>0.3809523809523809</v>
+        <v>0.3558504221954162</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3441,7 +3441,7 @@
         <v>66</v>
       </c>
       <c r="B14">
-        <v>0.5205479452054794</v>
+        <v>0.4791154791154791</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3449,7 +3449,7 @@
         <v>67</v>
       </c>
       <c r="B15">
-        <v>0.4695222405271829</v>
+        <v>0.4095371669004207</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3457,7 +3457,7 @@
         <v>68</v>
       </c>
       <c r="B16">
-        <v>0.4695340501792115</v>
+        <v>0.4336</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3465,7 +3465,7 @@
         <v>69</v>
       </c>
       <c r="B17">
-        <v>0.4357615894039735</v>
+        <v>0.4019138755980861</v>
       </c>
     </row>
   </sheetData>
@@ -3512,7 +3512,7 @@
         <v>70</v>
       </c>
       <c r="B2">
-        <v>0.2967542503863987</v>
+        <v>0.2681692732290709</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3520,7 +3520,7 @@
         <v>71</v>
       </c>
       <c r="B3">
-        <v>0.2967542503863987</v>
+        <v>0.2681692732290709</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3528,7 +3528,7 @@
         <v>72</v>
       </c>
       <c r="B4">
-        <v>0.4555984555984556</v>
+        <v>0.4179620034542315</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3536,7 +3536,7 @@
         <v>73</v>
       </c>
       <c r="B5">
-        <v>0.4389359129383313</v>
+        <v>0.3748753738783649</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3544,7 +3544,7 @@
         <v>74</v>
       </c>
       <c r="B6">
-        <v>0.7279411764705882</v>
+        <v>0.6753246753246753</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3552,7 +3552,7 @@
         <v>75</v>
       </c>
       <c r="B7">
-        <v>0.3677555321390938</v>
+        <v>0.3400383141762452</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3560,7 +3560,7 @@
         <v>76</v>
       </c>
       <c r="B8">
-        <v>0.3865030674846626</v>
+        <v>0.3452593917710197</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3568,7 +3568,7 @@
         <v>77</v>
       </c>
       <c r="B9">
-        <v>0.4312590448625181</v>
+        <v>0.396640826873385</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>78</v>
       </c>
       <c r="B10">
-        <v>0.5083969465648855</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3584,7 +3584,7 @@
         <v>79</v>
       </c>
       <c r="B11">
-        <v>0.3796889295516926</v>
+        <v>0.3528925619834711</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3592,7 +3592,7 @@
         <v>80</v>
       </c>
       <c r="B12">
-        <v>0.4767857142857143</v>
+        <v>0.446078431372549</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3600,7 +3600,7 @@
         <v>81</v>
       </c>
       <c r="B13">
-        <v>0.5026041666666666</v>
+        <v>0.4691943127962085</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3608,7 +3608,7 @@
         <v>82</v>
       </c>
       <c r="B14">
-        <v>0.5614035087719298</v>
+        <v>0.5109649122807017</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3616,7 +3616,7 @@
         <v>83</v>
       </c>
       <c r="B15">
-        <v>0.6518518518518519</v>
+        <v>0.5508982035928144</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3624,7 +3624,7 @@
         <v>84</v>
       </c>
       <c r="B16">
-        <v>0.3917396745932415</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3632,7 +3632,7 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.358053302433372</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3640,7 +3640,7 @@
         <v>86</v>
       </c>
       <c r="B18">
-        <v>0.3994778067885117</v>
+        <v>0.3619489559164733</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3648,7 +3648,7 @@
         <v>87</v>
       </c>
       <c r="B19">
-        <v>0.4445828144458281</v>
+        <v>0.4011049723756906</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3656,7 +3656,7 @@
         <v>88</v>
       </c>
       <c r="B20">
-        <v>0.5104602510460251</v>
+        <v>0.4702602230483272</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3664,7 +3664,7 @@
         <v>89</v>
       </c>
       <c r="B21">
-        <v>0.5863874345549738</v>
+        <v>0.5388127853881278</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3672,7 +3672,7 @@
         <v>90</v>
       </c>
       <c r="B22">
-        <v>0.545</v>
+        <v>0.479108635097493</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3680,7 +3680,7 @@
         <v>91</v>
       </c>
       <c r="B23">
-        <v>0.4884287454323995</v>
+        <v>0.4371002132196162</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3688,7 +3688,7 @@
         <v>92</v>
       </c>
       <c r="B24">
-        <v>0.3347302252488213</v>
+        <v>0.3000931966449208</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3696,7 +3696,7 @@
         <v>93</v>
       </c>
       <c r="B25">
-        <v>0.3347302252488213</v>
+        <v>0.3000931966449208</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3704,7 +3704,7 @@
         <v>94</v>
       </c>
       <c r="B26">
-        <v>0.3347302252488213</v>
+        <v>0.3000931966449208</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3712,7 +3712,7 @@
         <v>95</v>
       </c>
       <c r="B27">
-        <v>0.3833865814696485</v>
+        <v>0.354066985645933</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3720,7 +3720,7 @@
         <v>96</v>
       </c>
       <c r="B28">
-        <v>0.6728395061728395</v>
+        <v>0.6358695652173914</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3728,7 +3728,7 @@
         <v>97</v>
       </c>
       <c r="B29">
-        <v>0.4943609022556391</v>
+        <v>0.4569983136593592</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3736,7 +3736,7 @@
         <v>98</v>
       </c>
       <c r="B30">
-        <v>0.456896551724138</v>
+        <v>0.4185692541856925</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3744,7 +3744,7 @@
         <v>99</v>
       </c>
       <c r="B31">
-        <v>0.3955014058106842</v>
+        <v>0.3392996108949417</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3752,7 +3752,7 @@
         <v>100</v>
       </c>
       <c r="B32">
-        <v>0.492063492063492</v>
+        <v>0.449645390070922</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3760,7 +3760,7 @@
         <v>101</v>
       </c>
       <c r="B33">
-        <v>0.4850894632206759</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3768,7 +3768,7 @@
         <v>102</v>
       </c>
       <c r="B34">
-        <v>0.5362694300518135</v>
+        <v>0.4726256983240223</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3776,7 +3776,7 @@
         <v>103</v>
       </c>
       <c r="B35">
-        <v>0.4987775061124695</v>
+        <v>0.4613686534216336</v>
       </c>
     </row>
   </sheetData>
@@ -3841,7 +3841,7 @@
         <v>104</v>
       </c>
       <c r="B2">
-        <v>0.4987951807228916</v>
+        <v>0.4490644490644491</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3849,7 +3849,7 @@
         <v>105</v>
       </c>
       <c r="B3">
-        <v>0.76</v>
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3857,7 +3857,7 @@
         <v>106</v>
       </c>
       <c r="B4">
-        <v>0.4573170731707317</v>
+        <v>0.4183535762483131</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3865,7 +3865,7 @@
         <v>107</v>
       </c>
       <c r="B5">
-        <v>0.4811529933481153</v>
+        <v>0.4393063583815029</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3873,7 +3873,7 @@
         <v>108</v>
       </c>
       <c r="B6">
-        <v>0.7089552238805971</v>
+        <v>0.6578947368421053</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3881,7 +3881,7 @@
         <v>109</v>
       </c>
       <c r="B7">
-        <v>0.4509246088193457</v>
+        <v>0.4141025641025641</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3889,7 +3889,7 @@
         <v>110</v>
       </c>
       <c r="B8">
-        <v>0.5097087378640777</v>
+        <v>0.502283105022831</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3897,7 +3897,7 @@
         <v>111</v>
       </c>
       <c r="B9">
-        <v>0.5238095238095238</v>
+        <v>0.4582043343653251</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3905,7 +3905,7 @@
         <v>112</v>
       </c>
       <c r="B10">
-        <v>0.4605263157894737</v>
+        <v>0.4344827586206896</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3913,7 +3913,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>0.4338624338624338</v>
+        <v>0.3755615453728661</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3921,7 +3921,7 @@
         <v>114</v>
       </c>
       <c r="B12">
-        <v>0.3492762743864066</v>
+        <v>0.2825443786982249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3929,7 +3929,7 @@
         <v>115</v>
       </c>
       <c r="B13">
-        <v>0.4493975903614458</v>
+        <v>0.4102564102564102</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3937,7 +3937,7 @@
         <v>116</v>
       </c>
       <c r="B14">
-        <v>0.4695863746958637</v>
+        <v>0.4274891774891775</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3945,7 +3945,7 @@
         <v>117</v>
       </c>
       <c r="B15">
-        <v>0.5164609053497943</v>
+        <v>0.4739776951672863</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3953,7 +3953,7 @@
         <v>118</v>
       </c>
       <c r="B16">
-        <v>0.5325443786982249</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3961,7 +3961,7 @@
         <v>119</v>
       </c>
       <c r="B17">
-        <v>0.383879781420765</v>
+        <v>0.3617021276595745</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3969,7 +3969,7 @@
         <v>120</v>
       </c>
       <c r="B18">
-        <v>0.5374149659863946</v>
+        <v>0.5030487804878049</v>
       </c>
     </row>
   </sheetData>
@@ -4017,7 +4017,7 @@
         <v>121</v>
       </c>
       <c r="B2">
-        <v>0.485632183908046</v>
+        <v>0.4467005076142132</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4025,7 +4025,7 @@
         <v>122</v>
       </c>
       <c r="B3">
-        <v>0.5705128205128205</v>
+        <v>0.5397727272727273</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4033,7 +4033,7 @@
         <v>123</v>
       </c>
       <c r="B4">
-        <v>0.5143288084464555</v>
+        <v>0.4704301075268817</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4041,7 +4041,7 @@
         <v>124</v>
       </c>
       <c r="B5">
-        <v>0.5164835164835165</v>
+        <v>0.4850498338870432</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4049,7 +4049,7 @@
         <v>125</v>
       </c>
       <c r="B6">
-        <v>0.4511545293072824</v>
+        <v>0.4170692431561997</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4057,7 +4057,7 @@
         <v>126</v>
       </c>
       <c r="B7">
-        <v>0.3171368861024034</v>
+        <v>0.2853817504655494</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4065,7 +4065,7 @@
         <v>127</v>
       </c>
       <c r="B8">
-        <v>0.4748490945674044</v>
+        <v>0.4438305709023941</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4073,7 +4073,7 @@
         <v>128</v>
       </c>
       <c r="B9">
-        <v>0.5779467680608364</v>
+        <v>0.5128205128205128</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4081,7 +4081,7 @@
         <v>129</v>
       </c>
       <c r="B10">
-        <v>0.4770642201834863</v>
+        <v>0.4365620736698499</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4089,7 +4089,7 @@
         <v>130</v>
       </c>
       <c r="B11">
-        <v>0.5791245791245792</v>
+        <v>0.5170454545454546</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4097,7 +4097,7 @@
         <v>131</v>
       </c>
       <c r="B12">
-        <v>0.353615520282187</v>
+        <v>0.3232791956689868</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4105,7 +4105,7 @@
         <v>132</v>
       </c>
       <c r="B13">
-        <v>0.5272277227722773</v>
+        <v>0.4693446088794926</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4113,7 +4113,7 @@
         <v>133</v>
       </c>
       <c r="B14">
-        <v>0.3599386032233308</v>
+        <v>0.321954484605087</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4121,7 +4121,7 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>0.4289127837514934</v>
+        <v>0.391578947368421</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4129,7 +4129,7 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>0.5579399141630901</v>
+        <v>0.5145985401459854</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4137,7 +4137,7 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>0.4824561403508772</v>
+        <v>0.4421875</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4145,7 +4145,7 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>0.4991974317817015</v>
+        <v>0.4525139664804469</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4153,7 +4153,7 @@
         <v>138</v>
       </c>
       <c r="B19">
-        <v>0.4273412271259419</v>
+        <v>0.3757961783439491</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4161,7 +4161,7 @@
         <v>139</v>
       </c>
       <c r="B20">
-        <v>0.462992125984252</v>
+        <v>0.4265927977839335</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4169,7 +4169,7 @@
         <v>140</v>
       </c>
       <c r="B21">
-        <v>0.2503442577802258</v>
+        <v>0.220218319886094</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4177,7 +4177,7 @@
         <v>141</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.440251572327044</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4185,7 +4185,7 @@
         <v>142</v>
       </c>
       <c r="B23">
-        <v>0.3737486095661847</v>
+        <v>0.3358999037536092</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4193,7 +4193,7 @@
         <v>143</v>
       </c>
       <c r="B24">
-        <v>0.53</v>
+        <v>0.4817987152034261</v>
       </c>
     </row>
   </sheetData>
@@ -4247,7 +4247,7 @@
         <v>144</v>
       </c>
       <c r="B2">
-        <v>0.3660531697341513</v>
+        <v>0.3315696649029982</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>145</v>
       </c>
       <c r="B3">
-        <v>0.4805825242718447</v>
+        <v>0.4380403458213257</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>146</v>
       </c>
       <c r="B4">
-        <v>0.3932584269662922</v>
+        <v>0.3640040444893832</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>147</v>
       </c>
       <c r="B5">
-        <v>0.6504065040650406</v>
+        <v>0.5915492957746479</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>148</v>
       </c>
       <c r="B6">
-        <v>0.6287128712871287</v>
+        <v>0.5646551724137931</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>149</v>
       </c>
       <c r="B7">
-        <v>0.5212765957446809</v>
+        <v>0.4741784037558686</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>150</v>
       </c>
       <c r="B8">
-        <v>0.3480392156862745</v>
+        <v>0.2971788551081895</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>151</v>
       </c>
       <c r="B9">
-        <v>0.4100719424460432</v>
+        <v>0.3758911211924822</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>152</v>
       </c>
       <c r="B10">
-        <v>0.5106951871657754</v>
+        <v>0.4602803738317757</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>153</v>
       </c>
       <c r="B11">
-        <v>0.5938697318007663</v>
+        <v>0.5328947368421053</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>154</v>
       </c>
       <c r="B12">
-        <v>0.4798099762470309</v>
+        <v>0.4305835010060362</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>155</v>
       </c>
       <c r="B13">
-        <v>0.425569176882662</v>
+        <v>0.3884555382215288</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>156</v>
       </c>
       <c r="B14">
-        <v>0.461038961038961</v>
+        <v>0.3952225841476656</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>157</v>
       </c>
       <c r="B15">
-        <v>0.4484256243213898</v>
+        <v>0.4059787849566056</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>158</v>
       </c>
       <c r="B16">
-        <v>0.4313725490196079</v>
+        <v>0.3748427672955975</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>159</v>
       </c>
       <c r="B17">
-        <v>0.4535315985130112</v>
+        <v>0.4261168384879725</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.5349887133182845</v>
+        <v>0.4939516129032258</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>161</v>
       </c>
       <c r="B19">
-        <v>0.4274809160305343</v>
+        <v>0.3944827586206897</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>162</v>
       </c>
       <c r="B20">
-        <v>0.5147058823529411</v>
+        <v>0.4608150470219436</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>163</v>
       </c>
       <c r="B21">
-        <v>0.4773960216998192</v>
+        <v>0.4395424836601307</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>164</v>
       </c>
       <c r="B22">
-        <v>0.5584415584415584</v>
+        <v>0.5067873303167421</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>165</v>
       </c>
       <c r="B23">
-        <v>0.5132575757575758</v>
+        <v>0.4236526946107784</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>166</v>
       </c>
       <c r="B24">
-        <v>0.3325062034739454</v>
+        <v>0.3107658157602664</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>167</v>
       </c>
       <c r="B25">
-        <v>0.5183946488294314</v>
+        <v>0.4308093994778068</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>168</v>
       </c>
       <c r="B26">
-        <v>0.5916666666666667</v>
+        <v>0.5228070175438596</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>169</v>
       </c>
       <c r="B27">
-        <v>0.2612359550561798</v>
+        <v>0.2385786802030457</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>170</v>
       </c>
       <c r="B28">
-        <v>0.5329861111111112</v>
+        <v>0.4897959183673469</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>171</v>
       </c>
       <c r="B29">
-        <v>0.4196018376722818</v>
+        <v>0.3848275862068966</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>172</v>
       </c>
       <c r="B30">
-        <v>0.3141263940520446</v>
+        <v>0.2931323283082077</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>173</v>
       </c>
       <c r="B31">
-        <v>0.5508982035928144</v>
+        <v>0.4948453608247423</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>174</v>
       </c>
       <c r="B32">
-        <v>0.648936170212766</v>
+        <v>0.5799086757990868</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>175</v>
       </c>
       <c r="B33">
-        <v>0.5514018691588785</v>
+        <v>0.4973821989528796</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>176</v>
       </c>
       <c r="B34">
-        <v>0.5878594249201278</v>
+        <v>0.5433526011560693</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>177</v>
       </c>
       <c r="B35">
-        <v>0.4375</v>
+        <v>0.3871473354231975</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>178</v>
       </c>
       <c r="B36">
-        <v>0.5014164305949008</v>
+        <v>0.4656488549618321</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>179</v>
       </c>
       <c r="B37">
-        <v>0.4554794520547945</v>
+        <v>0.4062038404726735</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>180</v>
       </c>
       <c r="B38">
-        <v>0.5115646258503401</v>
+        <v>0.4593301435406699</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>181</v>
       </c>
       <c r="B39">
-        <v>0.4815905743740795</v>
+        <v>0.4438502673796791</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>182</v>
       </c>
       <c r="B40">
-        <v>0.6870229007633588</v>
+        <v>0.6575342465753424</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>183</v>
       </c>
       <c r="B41">
-        <v>0.5355648535564853</v>
+        <v>0.5018587360594795</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>184</v>
       </c>
       <c r="B42">
-        <v>0.519927536231884</v>
+        <v>0.4639498432601881</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>185</v>
       </c>
       <c r="B43">
-        <v>0.4233409610983982</v>
+        <v>0.3808080808080808</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>186</v>
       </c>
       <c r="B44">
-        <v>0.3536585365853658</v>
+        <v>0.3162692847124824</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>187</v>
       </c>
       <c r="B45">
-        <v>0.3330940416367552</v>
+        <v>0.2942260442260442</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>188</v>
       </c>
       <c r="B46">
-        <v>0.4967032967032967</v>
+        <v>0.4237588652482269</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>189</v>
       </c>
       <c r="B47">
-        <v>0.5923566878980892</v>
+        <v>0.5536723163841808</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>190</v>
       </c>
       <c r="B48">
-        <v>0.5565749235474006</v>
+        <v>0.5251396648044693</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4693,7 @@
         <v>191</v>
       </c>
       <c r="B2">
-        <v>0.5706214689265536</v>
+        <v>0.5012106537530266</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>192</v>
       </c>
       <c r="B3">
-        <v>0.4910313901345291</v>
+        <v>0.4512922465208747</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4709,7 +4709,7 @@
         <v>193</v>
       </c>
       <c r="B4">
-        <v>0.5185185185185185</v>
+        <v>0.4623287671232877</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4717,7 +4717,7 @@
         <v>194</v>
       </c>
       <c r="B5">
-        <v>0.4643179765130985</v>
+        <v>0.4125098970704671</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4725,7 +4725,7 @@
         <v>195</v>
       </c>
       <c r="B6">
-        <v>0.4336075205640423</v>
+        <v>0.400208986415883</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4733,7 +4733,7 @@
         <v>196</v>
       </c>
       <c r="B7">
-        <v>0.3468858131487889</v>
+        <v>0.3114134542705971</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4741,7 +4741,7 @@
         <v>197</v>
       </c>
       <c r="B8">
-        <v>0.5209580838323353</v>
+        <v>0.4643478260869565</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4749,7 +4749,7 @@
         <v>198</v>
       </c>
       <c r="B9">
-        <v>0.6284403669724771</v>
+        <v>0.5642023346303502</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4757,7 +4757,7 @@
         <v>199</v>
       </c>
       <c r="B10">
-        <v>0.4826021180030257</v>
+        <v>0.4368421052631579</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4765,7 +4765,7 @@
         <v>200</v>
       </c>
       <c r="B11">
-        <v>0.5949367088607594</v>
+        <v>0.5329949238578681</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4773,7 +4773,7 @@
         <v>201</v>
       </c>
       <c r="B12">
-        <v>0.5121951219512195</v>
+        <v>0.4730538922155689</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4781,7 +4781,7 @@
         <v>202</v>
       </c>
       <c r="B13">
-        <v>0.4104410441044105</v>
+        <v>0.3735035913806863</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4789,7 +4789,7 @@
         <v>203</v>
       </c>
       <c r="B14">
-        <v>0.5560747663551402</v>
+        <v>0.5254237288135594</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4797,7 +4797,7 @@
         <v>204</v>
       </c>
       <c r="B15">
-        <v>0.4593373493975904</v>
+        <v>0.4175392670157068</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>205</v>
       </c>
       <c r="B16">
-        <v>0.4744094488188976</v>
+        <v>0.4328097731239092</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>206</v>
       </c>
       <c r="B17">
-        <v>0.4615384615384616</v>
+        <v>0.4237588652482269</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>207</v>
       </c>
       <c r="B18">
-        <v>0.5544871794871795</v>
+        <v>0.5195530726256983</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4829,7 +4829,7 @@
         <v>208</v>
       </c>
       <c r="B19">
-        <v>0.4704968944099379</v>
+        <v>0.4327323162274618</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4837,7 +4837,7 @@
         <v>209</v>
       </c>
       <c r="B20">
-        <v>0.5299760191846523</v>
+        <v>0.4780793319415449</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4845,7 +4845,7 @@
         <v>210</v>
       </c>
       <c r="B21">
-        <v>0.5369318181818182</v>
+        <v>0.4961636828644501</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>211</v>
       </c>
       <c r="B22">
-        <v>0.5583756345177665</v>
+        <v>0.5168539325842697</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4861,7 +4861,7 @@
         <v>212</v>
       </c>
       <c r="B23">
-        <v>0.4211438474870017</v>
+        <v>0.3814589665653496</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4869,7 +4869,7 @@
         <v>213</v>
       </c>
       <c r="B24">
-        <v>0.6017316017316018</v>
+        <v>0.5509433962264151</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4877,7 +4877,7 @@
         <v>214</v>
       </c>
       <c r="B25">
-        <v>0.5411255411255411</v>
+        <v>0.5140562248995983</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4885,7 +4885,7 @@
         <v>215</v>
       </c>
       <c r="B26">
-        <v>0.4270650263620387</v>
+        <v>0.3772455089820359</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4893,7 +4893,7 @@
         <v>216</v>
       </c>
       <c r="B27">
-        <v>0.428087986463621</v>
+        <v>0.3876651982378855</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4901,7 +4901,7 @@
         <v>217</v>
       </c>
       <c r="B28">
-        <v>0.6742857142857143</v>
+        <v>0.624390243902439</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4909,7 +4909,7 @@
         <v>218</v>
       </c>
       <c r="B29">
-        <v>0.5257270693512305</v>
+        <v>0.4809619238476954</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4917,7 +4917,7 @@
         <v>219</v>
       </c>
       <c r="B30">
-        <v>0.6483050847457628</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4925,7 +4925,7 @@
         <v>220</v>
       </c>
       <c r="B31">
-        <v>0.467005076142132</v>
+        <v>0.4161220043572985</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4933,7 +4933,7 @@
         <v>221</v>
       </c>
       <c r="B32">
-        <v>0.5815217391304348</v>
+        <v>0.5201793721973094</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>222</v>
       </c>
       <c r="B33">
-        <v>0.4954407294832827</v>
+        <v>0.4733893557422969</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>223</v>
       </c>
       <c r="B34">
-        <v>0.4849137931034483</v>
+        <v>0.4140893470790378</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>224</v>
       </c>
       <c r="B35">
-        <v>0.6811594202898551</v>
+        <v>0.6379310344827587</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4965,7 +4965,7 @@
         <v>225</v>
       </c>
       <c r="B36">
-        <v>0.6221374045801527</v>
+        <v>0.5462962962962963</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4973,7 +4973,7 @@
         <v>226</v>
       </c>
       <c r="B37">
-        <v>0.5862068965517241</v>
+        <v>0.5256410256410257</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4981,7 +4981,7 @@
         <v>227</v>
       </c>
       <c r="B38">
-        <v>0.5806451612903226</v>
+        <v>0.5318471337579618</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4989,7 +4989,7 @@
         <v>228</v>
       </c>
       <c r="B39">
-        <v>0.541501976284585</v>
+        <v>0.5144927536231884</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4997,7 +4997,7 @@
         <v>229</v>
       </c>
       <c r="B40">
-        <v>0.5641025641025641</v>
+        <v>0.5542168674698795</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>230</v>
       </c>
       <c r="B41">
-        <v>0.5235294117647059</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>231</v>
       </c>
       <c r="B42">
-        <v>0.5658914728682171</v>
+        <v>0.527972027972028</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5021,7 +5021,7 @@
         <v>232</v>
       </c>
       <c r="B43">
-        <v>0.4030769230769231</v>
+        <v>0.3675675675675676</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>233</v>
       </c>
       <c r="B44">
-        <v>0.5533980582524272</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5037,7 +5037,7 @@
         <v>234</v>
       </c>
       <c r="B45">
-        <v>0.6842105263157895</v>
+        <v>0.5943775100401606</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5045,7 +5045,7 @@
         <v>235</v>
       </c>
       <c r="B46">
-        <v>0.618421052631579</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>236</v>
       </c>
       <c r="B47">
-        <v>0.5756457564575646</v>
+        <v>0.5346534653465347</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>237</v>
       </c>
       <c r="B48">
-        <v>0.4532710280373832</v>
+        <v>0.4139344262295082</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>238</v>
       </c>
       <c r="B49">
-        <v>0.5652173913043478</v>
+        <v>0.52734375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5077,7 +5077,7 @@
         <v>239</v>
       </c>
       <c r="B50">
-        <v>0.6127819548872181</v>
+        <v>0.554140127388535</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>240</v>
       </c>
       <c r="B51">
-        <v>0.5766666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>241</v>
       </c>
       <c r="B52">
-        <v>0.5905172413793104</v>
+        <v>0.5464684014869888</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>242</v>
       </c>
       <c r="B53">
-        <v>0.6422764227642277</v>
+        <v>0.5754385964912281</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>243</v>
       </c>
       <c r="B54">
-        <v>0.5887850467289719</v>
+        <v>0.5225464190981433</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5117,7 +5117,7 @@
         <v>244</v>
       </c>
       <c r="B55">
-        <v>0.7005988023952096</v>
+        <v>0.6772486772486772</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5125,7 +5125,7 @@
         <v>245</v>
       </c>
       <c r="B56">
-        <v>0.4493670886075949</v>
+        <v>0.4135021097046414</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5133,7 +5133,7 @@
         <v>246</v>
       </c>
       <c r="B57">
-        <v>0.4623893805309734</v>
+        <v>0.4105461393596987</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5141,7 +5141,7 @@
         <v>247</v>
       </c>
       <c r="B58">
-        <v>0.5467836257309941</v>
+        <v>0.4863523573200992</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5149,7 +5149,7 @@
         <v>248</v>
       </c>
       <c r="B59">
-        <v>0.5185185185185185</v>
+        <v>0.4879725085910653</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5157,7 +5157,7 @@
         <v>249</v>
       </c>
       <c r="B60">
-        <v>0.5063829787234042</v>
+        <v>0.4618181818181818</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5165,7 +5165,7 @@
         <v>250</v>
       </c>
       <c r="B61">
-        <v>0.4339622641509434</v>
+        <v>0.4009779951100245</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5173,7 +5173,7 @@
         <v>251</v>
       </c>
       <c r="B62">
-        <v>0.4178861788617886</v>
+        <v>0.3818443804034582</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5181,7 +5181,7 @@
         <v>252</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5189,7 +5189,7 @@
         <v>253</v>
       </c>
       <c r="B64">
-        <v>0.4704225352112676</v>
+        <v>0.4362745098039216</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5197,7 +5197,7 @@
         <v>254</v>
       </c>
       <c r="B65">
-        <v>0.413312693498452</v>
+        <v>0.3652058432934927</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5205,7 +5205,7 @@
         <v>255</v>
       </c>
       <c r="B66">
-        <v>0.5094339622641509</v>
+        <v>0.4774193548387097</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5213,7 +5213,7 @@
         <v>256</v>
       </c>
       <c r="B67">
-        <v>0.5364321608040201</v>
+        <v>0.4643237486687966</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5221,7 +5221,7 @@
         <v>257</v>
       </c>
       <c r="B68">
-        <v>0.5054704595185996</v>
+        <v>0.4609375</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5229,7 +5229,7 @@
         <v>258</v>
       </c>
       <c r="B69">
-        <v>0.4378194207836457</v>
+        <v>0.3888070692194404</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5237,7 +5237,7 @@
         <v>259</v>
       </c>
       <c r="B70">
-        <v>0.4875444839857651</v>
+        <v>0.4519230769230769</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5245,7 +5245,7 @@
         <v>260</v>
       </c>
       <c r="B71">
-        <v>0.470703125</v>
+        <v>0.4228187919463087</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5253,7 +5253,7 @@
         <v>261</v>
       </c>
       <c r="B72">
-        <v>0.48</v>
+        <v>0.4527027027027027</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5261,7 +5261,7 @@
         <v>262</v>
       </c>
       <c r="B73">
-        <v>0.5406360424028268</v>
+        <v>0.4968553459119497</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5269,7 +5269,7 @@
         <v>263</v>
       </c>
       <c r="B74">
-        <v>0.5297619047619048</v>
+        <v>0.4960212201591512</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5277,7 +5277,7 @@
         <v>264</v>
       </c>
       <c r="B75">
-        <v>0.395945945945946</v>
+        <v>0.3568129330254042</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5285,7 +5285,7 @@
         <v>265</v>
       </c>
       <c r="B76">
-        <v>0.571969696969697</v>
+        <v>0.531986531986532</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5293,7 +5293,7 @@
         <v>266</v>
       </c>
       <c r="B77">
-        <v>0.6512820512820513</v>
+        <v>0.6081081081081081</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5301,7 +5301,7 @@
         <v>267</v>
       </c>
       <c r="B78">
-        <v>0.5053763440860215</v>
+        <v>0.462962962962963</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5309,7 +5309,7 @@
         <v>268</v>
       </c>
       <c r="B79">
-        <v>0.5627376425855514</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5317,7 +5317,7 @@
         <v>269</v>
       </c>
       <c r="B80">
-        <v>0.6896551724137931</v>
+        <v>0.6343283582089553</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5325,7 +5325,7 @@
         <v>270</v>
       </c>
       <c r="B81">
-        <v>0.6536585365853659</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5333,7 +5333,7 @@
         <v>271</v>
       </c>
       <c r="B82">
-        <v>0.5846645367412141</v>
+        <v>0.5065963060686016</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5341,7 +5341,7 @@
         <v>272</v>
       </c>
       <c r="B83">
-        <v>0.5686813186813187</v>
+        <v>0.5286783042394015</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5349,7 +5349,7 @@
         <v>273</v>
       </c>
       <c r="B84">
-        <v>0.5040650406504065</v>
+        <v>0.4558303886925795</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5357,7 +5357,7 @@
         <v>274</v>
       </c>
       <c r="B85">
-        <v>0.4605344934742076</v>
+        <v>0.4158800666296502</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5365,7 +5365,7 @@
         <v>275</v>
       </c>
       <c r="B86">
-        <v>0.573076923076923</v>
+        <v>0.5405405405405406</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -5373,7 +5373,7 @@
         <v>276</v>
       </c>
       <c r="B87">
-        <v>0.5773955773955773</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -5381,7 +5381,7 @@
         <v>277</v>
       </c>
       <c r="B88">
-        <v>0.5445859872611465</v>
+        <v>0.4943181818181818</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -5389,7 +5389,7 @@
         <v>278</v>
       </c>
       <c r="B89">
-        <v>0.4515418502202643</v>
+        <v>0.4052044609665427</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5397,7 +5397,7 @@
         <v>279</v>
       </c>
       <c r="B90">
-        <v>0.5314685314685315</v>
+        <v>0.4787878787878788</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5405,7 +5405,7 @@
         <v>280</v>
       </c>
       <c r="B91">
-        <v>0.6956521739130435</v>
+        <v>0.6578947368421053</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5413,7 +5413,7 @@
         <v>281</v>
       </c>
       <c r="B92">
-        <v>0.5445859872611465</v>
+        <v>0.4943181818181818</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5421,7 +5421,7 @@
         <v>282</v>
       </c>
       <c r="B93">
-        <v>0.4672897196261682</v>
+        <v>0.4321678321678322</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5429,7 +5429,7 @@
         <v>283</v>
       </c>
       <c r="B94">
-        <v>0.45</v>
+        <v>0.3890865954922895</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5437,7 +5437,7 @@
         <v>284</v>
       </c>
       <c r="B95">
-        <v>0.6324503311258278</v>
+        <v>0.592814371257485</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>285</v>
       </c>
       <c r="B96">
-        <v>0.486646884272997</v>
+        <v>0.4389610389610389</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5453,7 +5453,7 @@
         <v>286</v>
       </c>
       <c r="B97">
-        <v>0.5038461538461538</v>
+        <v>0.4718309859154929</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5461,7 +5461,7 @@
         <v>287</v>
       </c>
       <c r="B98">
-        <v>0.4975728155339806</v>
+        <v>0.4598698481561822</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5469,7 +5469,7 @@
         <v>288</v>
       </c>
       <c r="B99">
-        <v>0.6267281105990783</v>
+        <v>0.5975103734439834</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5477,7 +5477,7 @@
         <v>289</v>
       </c>
       <c r="B100">
-        <v>0.6923076923076923</v>
+        <v>0.6139240506329114</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5485,7 +5485,7 @@
         <v>290</v>
       </c>
       <c r="B101">
-        <v>0.6303317535545023</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5493,7 +5493,7 @@
         <v>291</v>
       </c>
       <c r="B102">
-        <v>0.8974358974358975</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5501,7 +5501,7 @@
         <v>292</v>
       </c>
       <c r="B103">
-        <v>0.6178010471204188</v>
+        <v>0.5740740740740741</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5509,7 +5509,7 @@
         <v>293</v>
       </c>
       <c r="B104">
-        <v>0.6896551724137931</v>
+        <v>0.6507936507936508</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5517,7 +5517,7 @@
         <v>294</v>
       </c>
       <c r="B105">
-        <v>0.5327380952380952</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5525,7 +5525,7 @@
         <v>295</v>
       </c>
       <c r="B106">
-        <v>0.6172248803827751</v>
+        <v>0.5551020408163265</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5533,7 +5533,7 @@
         <v>296</v>
       </c>
       <c r="B107">
-        <v>0.6227758007117438</v>
+        <v>0.572347266881029</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5541,7 +5541,7 @@
         <v>297</v>
       </c>
       <c r="B108">
-        <v>0.7583333333333333</v>
+        <v>0.6644295302013423</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5549,7 +5549,7 @@
         <v>298</v>
       </c>
       <c r="B109">
-        <v>0.6067961165048543</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5557,7 +5557,7 @@
         <v>299</v>
       </c>
       <c r="B110">
-        <v>0.5445859872611465</v>
+        <v>0.4943181818181818</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5565,7 +5565,7 @@
         <v>300</v>
       </c>
       <c r="B111">
-        <v>0.5189504373177842</v>
+        <v>0.4818652849740933</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5573,7 +5573,7 @@
         <v>301</v>
       </c>
       <c r="B112">
-        <v>0.4723618090452261</v>
+        <v>0.4292035398230089</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -5581,7 +5581,7 @@
         <v>302</v>
       </c>
       <c r="B113">
-        <v>0.5769230769230769</v>
+        <v>0.5366568914956011</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -5589,7 +5589,7 @@
         <v>303</v>
       </c>
       <c r="B114">
-        <v>0.3579295154185022</v>
+        <v>0.3340060544904137</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5597,7 +5597,7 @@
         <v>304</v>
       </c>
       <c r="B115">
-        <v>0.5882352941176471</v>
+        <v>0.5432692307692307</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5605,7 +5605,7 @@
         <v>305</v>
       </c>
       <c r="B116">
-        <v>0.5934959349593496</v>
+        <v>0.5464285714285714</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -5613,7 +5613,7 @@
         <v>306</v>
       </c>
       <c r="B117">
-        <v>0.3752577319587629</v>
+        <v>0.3210702341137124</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5621,7 +5621,7 @@
         <v>307</v>
       </c>
       <c r="B118">
-        <v>0.5786666666666667</v>
+        <v>0.5347721822541966</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5629,7 +5629,7 @@
         <v>308</v>
       </c>
       <c r="B119">
-        <v>0.3758262511803588</v>
+        <v>0.3400167084377611</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5637,7 +5637,7 @@
         <v>309</v>
       </c>
       <c r="B120">
-        <v>0.5939086294416244</v>
+        <v>0.5318518518518518</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5645,7 +5645,7 @@
         <v>310</v>
       </c>
       <c r="B121">
-        <v>0.5179856115107914</v>
+        <v>0.4822006472491909</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -5653,7 +5653,7 @@
         <v>311</v>
       </c>
       <c r="B122">
-        <v>0.6296296296296297</v>
+        <v>0.5898617511520737</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -5661,7 +5661,7 @@
         <v>312</v>
       </c>
       <c r="B123">
-        <v>0.6138996138996139</v>
+        <v>0.5521885521885522</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -5669,7 +5669,7 @@
         <v>313</v>
       </c>
       <c r="B124">
-        <v>0.6089385474860335</v>
+        <v>0.5812807881773399</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5677,7 +5677,7 @@
         <v>314</v>
       </c>
       <c r="B125">
-        <v>0.4393404004711425</v>
+        <v>0.390194075587334</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5685,7 +5685,7 @@
         <v>315</v>
       </c>
       <c r="B126">
-        <v>0.5815384615384616</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -5693,7 +5693,7 @@
         <v>316</v>
       </c>
       <c r="B127">
-        <v>0.7425742574257426</v>
+        <v>0.6694214876033058</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5701,7 +5701,7 @@
         <v>317</v>
       </c>
       <c r="B128">
-        <v>0.5357142857142857</v>
+        <v>0.4759358288770054</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -5709,7 +5709,7 @@
         <v>318</v>
       </c>
       <c r="B129">
-        <v>0.5169172932330827</v>
+        <v>0.4735099337748344</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5717,7 +5717,7 @@
         <v>319</v>
       </c>
       <c r="B130">
-        <v>0.4765258215962441</v>
+        <v>0.4398340248962656</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -5725,7 +5725,7 @@
         <v>320</v>
       </c>
       <c r="B131">
-        <v>0.4938650306748466</v>
+        <v>0.4325396825396826</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -5733,7 +5733,7 @@
         <v>321</v>
       </c>
       <c r="B132">
-        <v>0.530448717948718</v>
+        <v>0.4836879432624113</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -5741,7 +5741,7 @@
         <v>322</v>
       </c>
       <c r="B133">
-        <v>0.5844155844155844</v>
+        <v>0.5032258064516129</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -5749,7 +5749,7 @@
         <v>323</v>
       </c>
       <c r="B134">
-        <v>0.6084656084656085</v>
+        <v>0.5721153846153846</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -5757,7 +5757,7 @@
         <v>324</v>
       </c>
       <c r="B135">
-        <v>0.4758064516129032</v>
+        <v>0.4159090909090909</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -5765,7 +5765,7 @@
         <v>325</v>
       </c>
       <c r="B136">
-        <v>0.5403225806451613</v>
+        <v>0.4892857142857143</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -5773,7 +5773,7 @@
         <v>326</v>
       </c>
       <c r="B137">
-        <v>0.3842364532019704</v>
+        <v>0.3501646542261251</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -5781,7 +5781,7 @@
         <v>327</v>
       </c>
       <c r="B138">
-        <v>0.3819796954314721</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -5789,7 +5789,7 @@
         <v>328</v>
       </c>
       <c r="B139">
-        <v>0.5746606334841629</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -5797,7 +5797,7 @@
         <v>329</v>
       </c>
       <c r="B140">
-        <v>0.5860927152317881</v>
+        <v>0.5302593659942363</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5805,7 +5805,7 @@
         <v>330</v>
       </c>
       <c r="B141">
-        <v>0.4198564593301435</v>
+        <v>0.3780104712041885</v>
       </c>
     </row>
   </sheetData>
